--- a/biology/Zoologie/Chiasmocleis_leucosticta/Chiasmocleis_leucosticta.xlsx
+++ b/biology/Zoologie/Chiasmocleis_leucosticta/Chiasmocleis_leucosticta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiasmocleis leucosticta est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Santa Catarina et de São Paulo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Santa Catarina et de São Paulo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis leucosticta mesure environ 25 mm. Son dos est brun foncé avec de très petites taches blanches éparses. Ses membres sont marbrés de rose sur leur face externe. Son ventre est blanc avec des taches et marbrures brunes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis leucosticta mesure environ 25 mm. Son dos est brun foncé avec de très petites taches blanches éparses. Ses membres sont marbrés de rose sur leur face externe. Son ventre est blanc avec des taches et marbrures brunes.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bokermann, 1952 : Microhylidae da coleção do Departamento de Zoologia (Amphibia-Anura). Papéis Avulsos do Departamento de Zoologia, vol. 10, p. 271-292.
 Boulenger, 1888 : A List of Batrachians from the Province Santa Catharina, Brazil. Annals and Magazine of Natural History, sér. 6, vol. 1, no 6, p. 415-417 (texte intégral).
